--- a/OpenMP/Profiling_OMP/DHPC.xlsx
+++ b/OpenMP/Profiling_OMP/DHPC.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Francisco Câmara\OneDrive\Ambiente de Trabalho\DHPC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D897B9CF-AE05-4D5A-A1B3-D559B9A57869}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B38E6C0-48E7-4537-A09E-29B4C934490E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -943,7 +943,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="129">
+  <cellXfs count="124">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1237,71 +1237,56 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="60" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="58" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="59" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="60" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="58" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3742,8 +3727,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CBD9BA9-E8F5-498B-A25F-8614A381C5CE}">
   <dimension ref="C5:CZ46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P9" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AL51" sqref="AL51"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="R37" sqref="R37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5770,14 +5755,14 @@
     </row>
     <row r="29" spans="3:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="30" spans="3:38" x14ac:dyDescent="0.25">
-      <c r="F30" s="109" t="s">
+      <c r="F30" s="110" t="s">
         <v>13</v>
       </c>
-      <c r="G30" s="110"/>
+      <c r="G30" s="111"/>
     </row>
     <row r="31" spans="3:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F31" s="111"/>
-      <c r="G31" s="112"/>
+      <c r="F31" s="112"/>
+      <c r="G31" s="113"/>
     </row>
     <row r="32" spans="3:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C32" s="69" t="s">
@@ -5787,10 +5772,10 @@
         <v>4</v>
       </c>
       <c r="E32" s="86"/>
-      <c r="F32" s="113">
+      <c r="F32" s="114">
         <v>25714</v>
       </c>
-      <c r="G32" s="114"/>
+      <c r="G32" s="115"/>
     </row>
     <row r="33" spans="3:53" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C33" s="70"/>
@@ -5798,10 +5783,10 @@
         <v>5</v>
       </c>
       <c r="E33" s="87"/>
-      <c r="F33" s="115">
+      <c r="F33" s="116">
         <v>3999</v>
       </c>
-      <c r="G33" s="116"/>
+      <c r="G33" s="117"/>
     </row>
     <row r="34" spans="3:53" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C34" s="70"/>
@@ -5809,10 +5794,10 @@
         <v>6</v>
       </c>
       <c r="E34" s="86"/>
-      <c r="F34" s="115">
+      <c r="F34" s="116">
         <v>6628</v>
       </c>
-      <c r="G34" s="116"/>
+      <c r="G34" s="117"/>
     </row>
     <row r="35" spans="3:53" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C35" s="71"/>
@@ -5820,63 +5805,63 @@
         <v>2</v>
       </c>
       <c r="E35" s="88"/>
-      <c r="F35" s="107">
+      <c r="F35" s="118">
         <v>843395</v>
       </c>
-      <c r="G35" s="108"/>
+      <c r="G35" s="119"/>
     </row>
     <row r="39" spans="3:53" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="40" spans="3:53" x14ac:dyDescent="0.25">
-      <c r="F40" s="117" t="s">
+      <c r="F40" s="107" t="s">
         <v>18</v>
       </c>
-      <c r="G40" s="118"/>
-      <c r="H40" s="118"/>
-      <c r="I40" s="118"/>
-      <c r="J40" s="118"/>
-      <c r="K40" s="118"/>
-      <c r="L40" s="118"/>
-      <c r="M40" s="118"/>
-      <c r="N40" s="118"/>
-      <c r="O40" s="118"/>
-      <c r="P40" s="118"/>
-      <c r="Q40" s="118"/>
-      <c r="R40" s="118"/>
-      <c r="S40" s="118"/>
-      <c r="T40" s="118"/>
-      <c r="U40" s="118"/>
-      <c r="V40" s="118"/>
-      <c r="W40" s="118"/>
-      <c r="X40" s="118"/>
-      <c r="Y40" s="118"/>
-      <c r="Z40" s="118"/>
-      <c r="AA40" s="118"/>
-      <c r="AB40" s="118"/>
-      <c r="AC40" s="118"/>
-      <c r="AD40" s="118"/>
-      <c r="AE40" s="118"/>
-      <c r="AF40" s="118"/>
-      <c r="AG40" s="118"/>
-      <c r="AH40" s="118"/>
-      <c r="AI40" s="118"/>
-      <c r="AJ40" s="118"/>
-      <c r="AK40" s="118"/>
-      <c r="AL40" s="118"/>
-      <c r="AM40" s="118"/>
-      <c r="AN40" s="118"/>
-      <c r="AO40" s="118"/>
-      <c r="AP40" s="118"/>
-      <c r="AQ40" s="118"/>
-      <c r="AR40" s="118"/>
-      <c r="AS40" s="118"/>
-      <c r="AT40" s="118"/>
-      <c r="AU40" s="118"/>
-      <c r="AV40" s="118"/>
-      <c r="AW40" s="118"/>
-      <c r="AX40" s="118"/>
-      <c r="AY40" s="118"/>
-      <c r="AZ40" s="118"/>
-      <c r="BA40" s="119"/>
+      <c r="G40" s="108"/>
+      <c r="H40" s="108"/>
+      <c r="I40" s="108"/>
+      <c r="J40" s="108"/>
+      <c r="K40" s="108"/>
+      <c r="L40" s="108"/>
+      <c r="M40" s="108"/>
+      <c r="N40" s="108"/>
+      <c r="O40" s="108"/>
+      <c r="P40" s="108"/>
+      <c r="Q40" s="108"/>
+      <c r="R40" s="108"/>
+      <c r="S40" s="108"/>
+      <c r="T40" s="108"/>
+      <c r="U40" s="108"/>
+      <c r="V40" s="108"/>
+      <c r="W40" s="108"/>
+      <c r="X40" s="108"/>
+      <c r="Y40" s="108"/>
+      <c r="Z40" s="108"/>
+      <c r="AA40" s="108"/>
+      <c r="AB40" s="108"/>
+      <c r="AC40" s="108"/>
+      <c r="AD40" s="108"/>
+      <c r="AE40" s="108"/>
+      <c r="AF40" s="108"/>
+      <c r="AG40" s="108"/>
+      <c r="AH40" s="108"/>
+      <c r="AI40" s="108"/>
+      <c r="AJ40" s="108"/>
+      <c r="AK40" s="108"/>
+      <c r="AL40" s="108"/>
+      <c r="AM40" s="109"/>
+      <c r="AN40" s="123"/>
+      <c r="AO40" s="123"/>
+      <c r="AP40" s="123"/>
+      <c r="AQ40" s="123"/>
+      <c r="AR40" s="123"/>
+      <c r="AS40" s="123"/>
+      <c r="AT40" s="123"/>
+      <c r="AU40" s="123"/>
+      <c r="AV40" s="123"/>
+      <c r="AW40" s="123"/>
+      <c r="AX40" s="123"/>
+      <c r="AY40" s="123"/>
+      <c r="AZ40" s="123"/>
+      <c r="BA40" s="123"/>
     </row>
     <row r="41" spans="3:53" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F41" s="120"/>
@@ -5912,21 +5897,21 @@
       <c r="AJ41" s="121"/>
       <c r="AK41" s="121"/>
       <c r="AL41" s="121"/>
-      <c r="AM41" s="121"/>
-      <c r="AN41" s="121"/>
-      <c r="AO41" s="121"/>
-      <c r="AP41" s="121"/>
-      <c r="AQ41" s="121"/>
-      <c r="AR41" s="121"/>
-      <c r="AS41" s="121"/>
-      <c r="AT41" s="121"/>
-      <c r="AU41" s="121"/>
-      <c r="AV41" s="121"/>
-      <c r="AW41" s="121"/>
-      <c r="AX41" s="121"/>
-      <c r="AY41" s="121"/>
-      <c r="AZ41" s="121"/>
-      <c r="BA41" s="122"/>
+      <c r="AM41" s="122"/>
+      <c r="AN41" s="123"/>
+      <c r="AO41" s="123"/>
+      <c r="AP41" s="123"/>
+      <c r="AQ41" s="123"/>
+      <c r="AR41" s="123"/>
+      <c r="AS41" s="123"/>
+      <c r="AT41" s="123"/>
+      <c r="AU41" s="123"/>
+      <c r="AV41" s="123"/>
+      <c r="AW41" s="123"/>
+      <c r="AX41" s="123"/>
+      <c r="AY41" s="123"/>
+      <c r="AZ41" s="123"/>
+      <c r="BA41" s="123"/>
     </row>
     <row r="42" spans="3:53" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D42" s="80" t="s">
@@ -6032,50 +6017,8 @@
       <c r="AL42" s="14">
         <v>208</v>
       </c>
-      <c r="AM42" s="14">
+      <c r="AM42" s="3">
         <v>224</v>
-      </c>
-      <c r="AN42" s="14">
-        <v>240</v>
-      </c>
-      <c r="AO42" s="14">
-        <v>256</v>
-      </c>
-      <c r="AP42" s="14">
-        <v>272</v>
-      </c>
-      <c r="AQ42" s="14">
-        <v>288</v>
-      </c>
-      <c r="AR42" s="14">
-        <v>304</v>
-      </c>
-      <c r="AS42" s="14">
-        <v>320</v>
-      </c>
-      <c r="AT42" s="14">
-        <v>336</v>
-      </c>
-      <c r="AU42" s="14">
-        <v>352</v>
-      </c>
-      <c r="AV42" s="14">
-        <v>368</v>
-      </c>
-      <c r="AW42" s="14">
-        <v>384</v>
-      </c>
-      <c r="AX42" s="14">
-        <v>400</v>
-      </c>
-      <c r="AY42" s="14">
-        <v>416</v>
-      </c>
-      <c r="AZ42" s="14">
-        <v>432</v>
-      </c>
-      <c r="BA42" s="3">
-        <v>448</v>
       </c>
     </row>
     <row r="43" spans="3:53" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6185,50 +6128,8 @@
       <c r="AL43" s="12">
         <v>400</v>
       </c>
-      <c r="AM43" s="124">
+      <c r="AM43" s="13">
         <v>397</v>
-      </c>
-      <c r="AN43" s="124">
-        <v>399</v>
-      </c>
-      <c r="AO43" s="124">
-        <v>401</v>
-      </c>
-      <c r="AP43" s="124">
-        <v>404</v>
-      </c>
-      <c r="AQ43" s="124">
-        <v>403</v>
-      </c>
-      <c r="AR43" s="124">
-        <v>404</v>
-      </c>
-      <c r="AS43" s="124">
-        <v>403</v>
-      </c>
-      <c r="AT43" s="124">
-        <v>409</v>
-      </c>
-      <c r="AU43" s="124">
-        <v>404</v>
-      </c>
-      <c r="AV43" s="124">
-        <v>408</v>
-      </c>
-      <c r="AW43" s="124">
-        <v>407</v>
-      </c>
-      <c r="AX43" s="124">
-        <v>404</v>
-      </c>
-      <c r="AY43" s="124">
-        <v>409</v>
-      </c>
-      <c r="AZ43" s="124">
-        <v>413</v>
-      </c>
-      <c r="BA43" s="125">
-        <v>412</v>
       </c>
     </row>
     <row r="44" spans="3:53" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6336,50 +6237,8 @@
       <c r="AL44" s="1">
         <v>133</v>
       </c>
-      <c r="AM44" s="123">
+      <c r="AM44" s="5">
         <v>137</v>
-      </c>
-      <c r="AN44" s="123">
-        <v>135</v>
-      </c>
-      <c r="AO44" s="123">
-        <v>135</v>
-      </c>
-      <c r="AP44" s="123">
-        <v>129</v>
-      </c>
-      <c r="AQ44" s="123">
-        <v>131</v>
-      </c>
-      <c r="AR44" s="123">
-        <v>137</v>
-      </c>
-      <c r="AS44" s="123">
-        <v>130</v>
-      </c>
-      <c r="AT44" s="123">
-        <v>135</v>
-      </c>
-      <c r="AU44" s="123">
-        <v>131</v>
-      </c>
-      <c r="AV44" s="123">
-        <v>128</v>
-      </c>
-      <c r="AW44" s="123">
-        <v>134</v>
-      </c>
-      <c r="AX44" s="123">
-        <v>132</v>
-      </c>
-      <c r="AY44" s="123">
-        <v>131</v>
-      </c>
-      <c r="AZ44" s="123">
-        <v>132</v>
-      </c>
-      <c r="BA44" s="126">
-        <v>127</v>
       </c>
     </row>
     <row r="45" spans="3:53" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6487,50 +6346,8 @@
       <c r="AL45" s="1">
         <v>235</v>
       </c>
-      <c r="AM45" s="123">
+      <c r="AM45" s="5">
         <v>222</v>
-      </c>
-      <c r="AN45" s="123">
-        <v>230</v>
-      </c>
-      <c r="AO45" s="123">
-        <v>222</v>
-      </c>
-      <c r="AP45" s="123">
-        <v>222</v>
-      </c>
-      <c r="AQ45" s="123">
-        <v>214</v>
-      </c>
-      <c r="AR45" s="123">
-        <v>233</v>
-      </c>
-      <c r="AS45" s="123">
-        <v>229</v>
-      </c>
-      <c r="AT45" s="123">
-        <v>218</v>
-      </c>
-      <c r="AU45" s="123">
-        <v>215</v>
-      </c>
-      <c r="AV45" s="123">
-        <v>218</v>
-      </c>
-      <c r="AW45" s="123">
-        <v>225</v>
-      </c>
-      <c r="AX45" s="123">
-        <v>230</v>
-      </c>
-      <c r="AY45" s="123">
-        <v>231</v>
-      </c>
-      <c r="AZ45" s="123">
-        <v>233</v>
-      </c>
-      <c r="BA45" s="126">
-        <v>216</v>
       </c>
     </row>
     <row r="46" spans="3:53" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6638,50 +6455,8 @@
       <c r="AL46" s="7">
         <v>8899</v>
       </c>
-      <c r="AM46" s="127">
+      <c r="AM46" s="8">
         <v>9081</v>
-      </c>
-      <c r="AN46" s="127">
-        <v>8979</v>
-      </c>
-      <c r="AO46" s="127">
-        <v>9039</v>
-      </c>
-      <c r="AP46" s="127">
-        <v>9078</v>
-      </c>
-      <c r="AQ46" s="127">
-        <v>8944</v>
-      </c>
-      <c r="AR46" s="127">
-        <v>8966</v>
-      </c>
-      <c r="AS46" s="127">
-        <v>9050</v>
-      </c>
-      <c r="AT46" s="127">
-        <v>9040</v>
-      </c>
-      <c r="AU46" s="127">
-        <v>9048</v>
-      </c>
-      <c r="AV46" s="127">
-        <v>9099</v>
-      </c>
-      <c r="AW46" s="127">
-        <v>9081</v>
-      </c>
-      <c r="AX46" s="127">
-        <v>9053</v>
-      </c>
-      <c r="AY46" s="127">
-        <v>9183</v>
-      </c>
-      <c r="AZ46" s="127">
-        <v>9069</v>
-      </c>
-      <c r="BA46" s="128">
-        <v>9198</v>
       </c>
     </row>
   </sheetData>
@@ -6692,13 +6467,13 @@
     <mergeCell ref="D44:E44"/>
     <mergeCell ref="D45:E45"/>
     <mergeCell ref="D46:E46"/>
-    <mergeCell ref="F40:BA41"/>
     <mergeCell ref="D24:E24"/>
     <mergeCell ref="F30:G31"/>
     <mergeCell ref="F32:G32"/>
     <mergeCell ref="F33:G33"/>
     <mergeCell ref="F34:G34"/>
     <mergeCell ref="F35:G35"/>
+    <mergeCell ref="F40:AM41"/>
     <mergeCell ref="C32:C35"/>
     <mergeCell ref="D32:E32"/>
     <mergeCell ref="D33:E33"/>
